--- a/单词纠正.xlsx
+++ b/单词纠正.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="普遍规律" sheetId="8" r:id="rId1"/>
@@ -22,15 +22,19 @@
     <sheet name="D" sheetId="3" r:id="rId8"/>
     <sheet name="E" sheetId="14" r:id="rId9"/>
     <sheet name="F" sheetId="15" r:id="rId10"/>
-    <sheet name="M" sheetId="9" r:id="rId11"/>
-    <sheet name="N" sheetId="17" r:id="rId12"/>
-    <sheet name="O" sheetId="12" r:id="rId13"/>
-    <sheet name="P" sheetId="18" r:id="rId14"/>
-    <sheet name="R" sheetId="16" r:id="rId15"/>
-    <sheet name="S" sheetId="7" r:id="rId16"/>
-    <sheet name="T" sheetId="5" r:id="rId17"/>
-    <sheet name="To" sheetId="20" r:id="rId18"/>
-    <sheet name="V" sheetId="13" r:id="rId19"/>
+    <sheet name="G" sheetId="24" r:id="rId11"/>
+    <sheet name="H" sheetId="23" r:id="rId12"/>
+    <sheet name="I" sheetId="22" r:id="rId13"/>
+    <sheet name="L" sheetId="25" r:id="rId14"/>
+    <sheet name="M" sheetId="9" r:id="rId15"/>
+    <sheet name="N" sheetId="17" r:id="rId16"/>
+    <sheet name="O" sheetId="12" r:id="rId17"/>
+    <sheet name="P" sheetId="18" r:id="rId18"/>
+    <sheet name="R" sheetId="16" r:id="rId19"/>
+    <sheet name="S" sheetId="7" r:id="rId20"/>
+    <sheet name="T" sheetId="5" r:id="rId21"/>
+    <sheet name="V" sheetId="13" r:id="rId22"/>
+    <sheet name="W" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="860">
   <si>
     <t>音标</t>
   </si>
@@ -296,6 +300,9 @@
     <t>元音/浊辅音后 /zɪ/   ,  清音后 /sɪ/</t>
   </si>
   <si>
+    <t>/s/</t>
+  </si>
+  <si>
     <t xml:space="preserve"> /ˌ sai/ </t>
   </si>
   <si>
@@ -398,18 +405,9 @@
     <t>--ancy</t>
   </si>
   <si>
-    <t>/ənsi/</t>
-  </si>
-  <si>
     <t>--ture</t>
   </si>
   <si>
-    <t>/tʃər/</t>
-  </si>
-  <si>
-    <t>literature</t>
-  </si>
-  <si>
     <t>--tera</t>
   </si>
   <si>
@@ -435,9 +433,6 @@
   </si>
   <si>
     <t>临时标记</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> com/con + s </t>
   </si>
   <si>
     <t>1. 有些口音 stan --san /sn/ 
@@ -448,12 +443,6 @@
   </si>
   <si>
     <t>t+you</t>
-  </si>
-  <si>
-    <t>/dʒ/</t>
-  </si>
-  <si>
-    <t>/tʃ/</t>
   </si>
   <si>
     <t>compare it to the origianl</t>
@@ -510,12 +499,6 @@
     <t>--[辅音]ara</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>[元、辅] +s --&gt; /z/   清 +s --&gt; /s/</t>
-  </si>
-  <si>
     <t>shr</t>
   </si>
   <si>
@@ -594,9 +577,6 @@
     <t>--ci--</t>
   </si>
   <si>
-    <t>/si/</t>
-  </si>
-  <si>
     <t>chi--</t>
   </si>
   <si>
@@ -606,12 +586,6 @@
     <t>--tion (词尾， 重音相关词根)</t>
   </si>
   <si>
-    <t>/ʃən/ 重音在其前一个音节， 普遍与长元音 组合 a o e,</t>
-  </si>
-  <si>
-    <t>前一个音节</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -762,18 +736,12 @@
     <t>/bɪ/</t>
   </si>
   <si>
-    <t>--tary</t>
-  </si>
-  <si>
     <t xml:space="preserve">/tərə/美   /trə/英 中的 rə --&gt; /trɪ/ </t>
   </si>
   <si>
     <t xml:space="preserve">/strɪ/    </t>
   </si>
   <si>
-    <t>/trɪ/  重音在其前一个音节</t>
-  </si>
-  <si>
     <t>--tary  (词尾， 重音相关词根)</t>
   </si>
   <si>
@@ -795,9 +763,6 @@
     <t>employ</t>
   </si>
   <si>
-    <t>后一个音节</t>
-  </si>
-  <si>
     <t>dropout</t>
   </si>
   <si>
@@ -810,9 +775,6 @@
     <t>--plo-- (词中, 重音)</t>
   </si>
   <si>
-    <t>--po--   --po ( 词尾词中, 重音)</t>
-  </si>
-  <si>
     <t>psy-- (次重音)</t>
   </si>
   <si>
@@ -828,9 +790,6 @@
     <t xml:space="preserve"> 不是/au/ </t>
   </si>
   <si>
-    <t>/sə/   遇见ster  变成费中英</t>
-  </si>
-  <si>
     <t>/stə/ 在 某些词尾改变原词重音 至其前一音节</t>
   </si>
   <si>
@@ -861,9 +820,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>historian   /hɪˈstɔːriən/</t>
-  </si>
-  <si>
     <t>--sto</t>
   </si>
   <si>
@@ -873,12 +829,6 @@
     <t>/stɔː/</t>
   </si>
   <si>
-    <t>--ian (词尾，重音相关词根)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/iən/   会强夺前一音节的辅音，重音变前一音节， 是前音节发生读音变化  </t>
-  </si>
-  <si>
     <t>historian</t>
   </si>
   <si>
@@ -951,9 +901,6 @@
     <t>extensive</t>
   </si>
   <si>
-    <t>--sive</t>
-  </si>
-  <si>
     <t>/sɪv/ 重音在其前一个音节，</t>
   </si>
   <si>
@@ -973,9 +920,6 @@
   </si>
   <si>
     <t>自身重音</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ri:/ 重音 </t>
   </si>
   <si>
     <r>
@@ -1033,15 +977,9 @@
     <t>--ory</t>
   </si>
   <si>
-    <t>/əri/   但是一般r前是元音或 t ，/ə/都会省略</t>
-  </si>
-  <si>
     <t>/ˈvaɪ[ə]  r /  某些词典有ə ，但是一般r前是元音或 t ，/ə/都会省略</t>
   </si>
   <si>
-    <t>--tive</t>
-  </si>
-  <si>
     <t>/tɪv/ 重音在其前一个音节，</t>
   </si>
   <si>
@@ -1057,13 +995,7 @@
     <t>ob--</t>
   </si>
   <si>
-    <t>--ence  (词首，非重音词根)</t>
-  </si>
-  <si>
-    <t>/ən/</t>
-  </si>
-  <si>
-    <t>reference</t>
+    <t>--ence</t>
   </si>
   <si>
     <t>bre</t>
@@ -1485,9 +1417,6 @@
     <t>个人性格</t>
   </si>
   <si>
-    <t xml:space="preserve"> /ˈærəɡənt/  adj 傲慢的</t>
-  </si>
-  <si>
     <t>impolit 无礼的</t>
   </si>
   <si>
@@ -1557,9 +1486,6 @@
     <t>--esque</t>
   </si>
   <si>
-    <t>--ettte</t>
-  </si>
-  <si>
     <t>--cy</t>
   </si>
   <si>
@@ -1578,12 +1504,12 @@
     <t>--[t,s] ion</t>
   </si>
   <si>
-    <t>--[t,s] ive</t>
-  </si>
-  <si>
     <t>--[r] ian</t>
   </si>
   <si>
+    <t>--ial</t>
+  </si>
+  <si>
     <t>--[] ial</t>
   </si>
   <si>
@@ -1672,13 +1598,1241 @@
   </si>
   <si>
     <t>mail in a  check</t>
+  </si>
+  <si>
+    <t>--(a)[t,s] ive</t>
+  </si>
+  <si>
+    <t>--(a)tive</t>
+  </si>
+  <si>
+    <t>--(a)sive</t>
+  </si>
+  <si>
+    <t>--che--  (词中，非重音节)</t>
+  </si>
+  <si>
+    <t>/tʃə/</t>
+  </si>
+  <si>
+    <t>--cant</t>
+  </si>
+  <si>
+    <t>/kənt /  倒三原则，…者</t>
+  </si>
+  <si>
+    <t>--ture (双音节）</t>
+  </si>
+  <si>
+    <t>--ate  (词尾，非重音）</t>
+  </si>
+  <si>
+    <t>/ət/</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>/sərˈtɪfɪkət/</t>
+  </si>
+  <si>
+    <t>--ate 是 /ət/   不是 eit</t>
+  </si>
+  <si>
+    <t>s (单个字母)</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>passage</t>
+  </si>
+  <si>
+    <t>--cle</t>
+  </si>
+  <si>
+    <t>/kl/</t>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>词性释义</t>
+  </si>
+  <si>
+    <t>v  包含，环绕</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈærəɡənt/  </t>
+  </si>
+  <si>
+    <t>adj 傲慢的</t>
+  </si>
+  <si>
+    <t>involve, contain</t>
+  </si>
+  <si>
+    <t>通用，环境</t>
+  </si>
+  <si>
+    <t>sp--</t>
+  </si>
+  <si>
+    <t>spi---(词首， 重音)</t>
+  </si>
+  <si>
+    <t>spiral</t>
+  </si>
+  <si>
+    <t>/'sbai/</t>
+  </si>
+  <si>
+    <t>nar-- (词首，非重音)</t>
+  </si>
+  <si>
+    <t>narrator</t>
+  </si>
+  <si>
+    <t>/ˈspaɪrəl/</t>
+  </si>
+  <si>
+    <t>注意重音时 /p/ 转/b/</t>
+  </si>
+  <si>
+    <t>/nə/</t>
+  </si>
+  <si>
+    <t>--al</t>
+  </si>
+  <si>
+    <t>chie-- (重音节)</t>
+  </si>
+  <si>
+    <t>/'tʃi:/</t>
+  </si>
+  <si>
+    <t>further</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈfɜːrðər/ </t>
+  </si>
+  <si>
+    <t>adj、adv，进一步</t>
+  </si>
+  <si>
+    <t>不要有future 混淆</t>
+  </si>
+  <si>
+    <t>/ˈtʃʊr/   名前动后</t>
+  </si>
+  <si>
+    <t>'future名前    ma'ture 动后</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ɪkl/ 遵循倒三， 本身算两个音节 /ɪ/  /kl/ </t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>de--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conference </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈkɑːnfərəns/</t>
+  </si>
+  <si>
+    <t>n. 会议</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>/di:teɪl/</t>
+  </si>
+  <si>
+    <t>--ail</t>
+  </si>
+  <si>
+    <t>/eil/  不要发 /æl  /</t>
+  </si>
+  <si>
+    <t>1. 重音时de ，发/di:/ 
+2. /tail 是长元音，不要发成/æ/</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>/ˈɪnfrə'strʌktʃər/</t>
+  </si>
+  <si>
+    <t>n. 基础设施</t>
+  </si>
+  <si>
+    <t>双重音， fra 不要发/fra:/</t>
+  </si>
+  <si>
+    <t>historian   /hɪˈstɔː  riən/</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>qua--- (词首重音）</t>
+  </si>
+  <si>
+    <t>/'kwɒ/</t>
+  </si>
+  <si>
+    <t>--tre</t>
+  </si>
+  <si>
+    <t>theatre</t>
+  </si>
+  <si>
+    <t>/tər/</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈhaɪər/</t>
+  </si>
+  <si>
+    <t>更高的</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ɪkˈsperɪmənt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.注意sp 发/sb/, 
+2. pe重音发 /pe/，不是/pə/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /kəˌmjuːnɪˈkeɪʃn/ </t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>com 是/kə/  不是/kəm/</t>
+  </si>
+  <si>
+    <t>comm--</t>
+  </si>
+  <si>
+    <t>--ori-- (词中，重音)</t>
+  </si>
+  <si>
+    <t>/praɪˈɔːrəti/</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /praɪˈɔːrəti/</t>
+  </si>
+  <si>
+    <t>pri---  (词首)</t>
+  </si>
+  <si>
+    <t>/prai/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prin-- </t>
+  </si>
+  <si>
+    <t>/prɪn/</t>
+  </si>
+  <si>
+    <t>primary, priority</t>
+  </si>
+  <si>
+    <t>principle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/si/  </t>
+  </si>
+  <si>
+    <t>/sə/</t>
+  </si>
+  <si>
+    <t>voca-- (闭音节)</t>
+  </si>
+  <si>
+    <t>vacabulary</t>
+  </si>
+  <si>
+    <t>/vəˈkæb/</t>
+  </si>
+  <si>
+    <t>voca-- (开音节)</t>
+  </si>
+  <si>
+    <t>vocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /voʊˈkeɪ/</t>
+  </si>
+  <si>
+    <t>m归后元音节， com 非重音发 /kə/ ， 重音 /ˈkɑ:/</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>/'kɑːmən/</t>
+  </si>
+  <si>
+    <t>不是 /kou/ 和/kɔː/</t>
+  </si>
+  <si>
+    <t>pre-- （词首，非重音）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /prɪˈ</t>
+  </si>
+  <si>
+    <t>prepare  /prɪˈper/</t>
+  </si>
+  <si>
+    <t>--ete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /kəm/  </t>
+  </si>
+  <si>
+    <t>plete</t>
+  </si>
+  <si>
+    <t>--[r] ium</t>
+  </si>
+  <si>
+    <t>--[r]ium (词尾，重音相关词根)</t>
+  </si>
+  <si>
+    <t>--[r]ian (词尾，重音相关词根)</t>
+  </si>
+  <si>
+    <t>auditorium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/iəm/   会强夺前一音节的辅音，重音变前一音节， 是前音节发生读音变化  </t>
+  </si>
+  <si>
+    <t>auditor</t>
+  </si>
+  <si>
+    <t> /ˈɔːdɪtər/</t>
+  </si>
+  <si>
+    <t> /ˌɔːdɪˈtɔːriəm/</t>
+  </si>
+  <si>
+    <t>注意重音变化</t>
+  </si>
+  <si>
+    <t>n.听众</t>
+  </si>
+  <si>
+    <t>n. 礼堂</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /breɪk/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不是/bi:/</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>/eim/</t>
+  </si>
+  <si>
+    <t>不是/aim/</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /əˈdʌlt/</t>
+  </si>
+  <si>
+    <t>成人</t>
+  </si>
+  <si>
+    <t>注意还有一个/ˈædʌlt/  的发音</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>gui-- (重音，词根）</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>/gai/</t>
+  </si>
+  <si>
+    <t>guar--(重音，词根）</t>
+  </si>
+  <si>
+    <t>/ɡɑːr/</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t> /ɡɑːrd/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈɡaɪd(ə)ns/</t>
+  </si>
+  <si>
+    <t>注意区分两个单词 gui 和 guar</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈhɑːlədeɪ/ </t>
+  </si>
+  <si>
+    <t>/ʃən/ 重音在其前一个音节， 普遍与长元音 组合 a o e,， 前一音节是开口音发长元音</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--tu-- </t>
+  </si>
+  <si>
+    <t>/ˈtjuː/</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>/tʃər/  倒三原则</t>
+  </si>
+  <si>
+    <t>literature， signature</t>
+  </si>
+  <si>
+    <t>solve</t>
+  </si>
+  <si>
+    <t> /sɑːlv/ </t>
+  </si>
+  <si>
+    <t>1. 不是 /hau/, 因为后面是/l/ ,所以发音接近/au/的音， 尽量发/al/
+2. 不是 /lɪ/</t>
+  </si>
+  <si>
+    <t>1. 不是 /sau/,因为后面是/l/ ,所以发音接近/au/的音， 尽量发/sal/</t>
+  </si>
+  <si>
+    <t>sur--(词首，非重音）</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>/sə/   遇见ster  变成非重音</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /mæs/</t>
+  </si>
+  <si>
+    <t>/tɪ/  倒三原则 ， 前一原因基本上变为 /ə/</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>不是/meɪs/</t>
+  </si>
+  <si>
+    <t>--or</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
+    <t>/əri/   但是一般r前是元音或 t ，/ə/都会省略， 倒三原则</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ləˈbɒrətri/ 英</t>
+  </si>
+  <si>
+    <t>/ˈlæbə  tɔːri/美</t>
+  </si>
+  <si>
+    <t>两个读音都要熟悉 
+美音结尾长    tɔːri/ ， 重音在词首
+英音 中间长  bɒrə，  重音在中间</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>argue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ˈɑːrɡjuː/ </t>
+  </si>
+  <si>
+    <t>v 争论</t>
+  </si>
+  <si>
+    <t>/ˈɑːrɡjumənt/</t>
+  </si>
+  <si>
+    <t>n，争论</t>
+  </si>
+  <si>
+    <t>不要发 /ˈɑːrɡɪ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/tə/   </t>
+  </si>
+  <si>
+    <t>--or (词尾，非重音相关音节)</t>
+  </si>
+  <si>
+    <t>encyclopedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encyclopedia  /ɪnˌsaɪkləˈpiːdiə/ </t>
+  </si>
+  <si>
+    <t>--cycle--  --cyclo--</t>
+  </si>
+  <si>
+    <t>/sɪkl/前一原因为长元音则为 bicycle</t>
+  </si>
+  <si>
+    <t>/saɪkl/,  非重音节，</t>
+  </si>
+  <si>
+    <t>ˈpiːdiə/</t>
+  </si>
+  <si>
+    <t>--pedia (词尾，重音音节)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--pedia </t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ˈekspɜːrt/ </t>
+  </si>
+  <si>
+    <t>注意是 /e/ 不是/ɪ/</t>
+  </si>
+  <si>
+    <t>vaca</t>
+  </si>
+  <si>
+    <t>/vəˈkeɪ/</t>
+  </si>
+  <si>
+    <t>monopoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /məˈnɑːpəli/</t>
+  </si>
+  <si>
+    <t>注意重音</t>
+  </si>
+  <si>
+    <t>--poly （词尾）</t>
+  </si>
+  <si>
+    <t>非重音 /pəli/  倒三原则</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--poly </t>
+  </si>
+  <si>
+    <t>--logue</t>
+  </si>
+  <si>
+    <t>--logue (词尾，重音相关）</t>
+  </si>
+  <si>
+    <t>/lɒɡ/  倒三原则</t>
+  </si>
+  <si>
+    <t>com-- (词首， 非重音）</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>/'kɑːm/</t>
+  </si>
+  <si>
+    <t>com-- (词首，重音,次重音)</t>
+  </si>
+  <si>
+    <t>campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈkæmpəs/</t>
+  </si>
+  <si>
+    <t>不是/kʌm/</t>
+  </si>
+  <si>
+    <t>--ent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈre frəns/ </t>
+  </si>
+  <si>
+    <t>注意f后无音节ə</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intelligence  
+reference  /ˈrefrəns/ </t>
+  </si>
+  <si>
+    <t>/trɪ/  倒三原则，，英音做t(ə)ri/</t>
+  </si>
+  <si>
+    <t>--[t,d]ary  /tri/</t>
+  </si>
+  <si>
+    <t>--[t,d]ary  (词尾， 重音相关词根)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/  trɪ/  /drɪ/   倒三原则，，英音做/ t(ə)ri/  /derɪ/ </t>
+  </si>
+  <si>
+    <t>elementarty, secretary, secondary</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ruːlz/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 注意s 发音</t>
+  </si>
+  <si>
+    <t>[元、浊，l] +s --&gt; /z/   清 +s --&gt; /s/</t>
+  </si>
+  <si>
+    <t>payable 可支付的</t>
+  </si>
+  <si>
+    <t>adj. 行政的，有执行权的
+n. 主管，经理</t>
+  </si>
+  <si>
+    <t>n. 专家</t>
+  </si>
+  <si>
+    <t>n. 实验</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ɪkˈspens/ </t>
+  </si>
+  <si>
+    <t>n. 代价，费用；业务费用</t>
+  </si>
+  <si>
+    <t>ex--</t>
+  </si>
+  <si>
+    <t>expense   ɪ x
+expert  ex</t>
+  </si>
+  <si>
+    <t>单词中是否有音节/e/  ex --&gt; ɪ x,  没有则  ex --&gt; e x</t>
+  </si>
+  <si>
+    <t>charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意复数s 发音 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> /tʃɑːdʒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɪz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>--cial</t>
+  </si>
+  <si>
+    <t>fi'nancial  &lt;--'finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /c+ iəl/  --&gt; /ʃ(ə)l/ 会强夺前一音节的辅音，重音变前一音节， 是前音节发生读音变化  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /iəl/  会强夺前一音节的辅音，重音变前一音节， 使前音节发生读音变化  </t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>/ɡrænt/</t>
+  </si>
+  <si>
+    <t>v. 授予，给予</t>
+  </si>
+  <si>
+    <t>注意发音 ræn</t>
+  </si>
+  <si>
+    <t>scho--</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈskɑː</t>
+  </si>
+  <si>
+    <t>scholar</t>
+  </si>
+  <si>
+    <t>/ˈs ɡɑːlər/</t>
+  </si>
+  <si>
+    <t>不是 /s ɡau/,因为后面是/l/ ,所以发音接近/au/的音， 尽量发/ˈs ɡɑːlər/</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>/ˈekstr a /</t>
+  </si>
+  <si>
+    <t>音标是trə/， 但是更接近/str a /</t>
+  </si>
+  <si>
+    <t>--tra (词尾，非重读）</t>
+  </si>
+  <si>
+    <t>dis--</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>dispenser</t>
+  </si>
+  <si>
+    <t>dis + p/t 等可以和s组成音节的， di  sp/t,重音在s音节上 /dɪˈsb</t>
+  </si>
+  <si>
+    <t>dis 后音节不可以和s组成音节的，重音为dis  /ˈdɪs/</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈdɑːlər/</t>
+  </si>
+  <si>
+    <t>o的发音   因为后面是/l/ ,所以发音接近/au/的音， 尽量发/dal/</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /bæŋk</t>
+  </si>
+  <si>
+    <t>注意是长音 ŋ</t>
+  </si>
+  <si>
+    <t>--iary</t>
+  </si>
+  <si>
+    <t>--airy</t>
+  </si>
+  <si>
+    <t>aɪəri/</t>
+  </si>
+  <si>
+    <t>diary 日记</t>
+  </si>
+  <si>
+    <t>dairy  牛奶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e(ə)ri/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--ence  (词尾，重音相关词根) 
+</t>
+  </si>
+  <si>
+    <t>--ency</t>
+  </si>
+  <si>
+    <t>encurrency</t>
+  </si>
+  <si>
+    <t>/(ə)l/ 跟辅音结合常省略 ə</t>
+  </si>
+  <si>
+    <t>--leage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/lɪdʒ/ </t>
+  </si>
+  <si>
+    <t>mileage</t>
+  </si>
+  <si>
+    <t>--tune (词尾，非重音）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/tʃən/ </t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> com/con + s，f，g, cer/sə/</t>
+  </si>
+  <si>
+    <t>concert</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>/ˈriːfʌnd/</t>
+  </si>
+  <si>
+    <t>v. 退还，退款</t>
+  </si>
+  <si>
+    <t>注意re是长音</t>
+  </si>
+  <si>
+    <t>po--  --po--   --po ( 词首词尾词中, 重音)</t>
+  </si>
+  <si>
+    <t>开音节词</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈmaɪlɪdʒ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/əns/  倒三原则， </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--ance  (词尾，重音相关词根) 
+</t>
+  </si>
+  <si>
+    <t>allowance</t>
+  </si>
+  <si>
+    <t>sto-- (词首，重音）</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sdɑːk/ </t>
+  </si>
+  <si>
+    <t>hi---  (词首，重音）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /haɪk/</t>
+  </si>
+  <si>
+    <t>hike</t>
+  </si>
+  <si>
+    <t>--que--</t>
+  </si>
+  <si>
+    <t>/kwɪt/</t>
+  </si>
+  <si>
+    <t>banquet 宴会</t>
+  </si>
+  <si>
+    <t>--ea-- (重音)</t>
+  </si>
+  <si>
+    <t>/i:/</t>
+  </si>
+  <si>
+    <t>feast,really</t>
+  </si>
+  <si>
+    <t>当后面词根有a 并发 /ə/ 时，重音在 em ， 如 embassy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e&gt;a</t>
+  </si>
+  <si>
+    <t>--tage</t>
+  </si>
+  <si>
+    <t>/tɪdʒ/</t>
+  </si>
+  <si>
+    <t>cottage</t>
+  </si>
+  <si>
+    <t>brochure</t>
+  </si>
+  <si>
+    <t>bro--</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /broʊ/   后面音节为 清辅音</t>
+  </si>
+  <si>
+    <t>/ˈbrʌðər/  后面音节为浊辅音</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>--age</t>
+  </si>
+  <si>
+    <t>/ɪdʒ/</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>en--  em--</t>
+  </si>
+  <si>
+    <t>embassy, entrance</t>
+  </si>
+  <si>
+    <t>recreation  /ˌriːkriˈeɪʃn; ˌrekriˈeɪʃən/</t>
+  </si>
+  <si>
+    <t>o+th</t>
+  </si>
+  <si>
+    <t>/ʌ ð /</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>elder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈeldər/ </t>
+  </si>
+  <si>
+    <t>n. 长辈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/nel/ </t>
+  </si>
+  <si>
+    <t>--nel  (词尾，重音音节)</t>
+  </si>
+  <si>
+    <t>personnel</t>
+  </si>
+  <si>
+    <t>se-- (词首，非重音)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sɪn/    e+n --&gt;/sɪn/ </t>
+  </si>
+  <si>
+    <t>passenger</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>不要发wel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /wiːl/ </t>
+  </si>
+  <si>
+    <t>n. 方向盘</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>--ley</t>
+  </si>
+  <si>
+    <t>/lɪ</t>
+  </si>
+  <si>
+    <t>trolley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈtrɑːli/</t>
+  </si>
+  <si>
+    <t>ley 是  /li/ 不要发/lei/</t>
+  </si>
+  <si>
+    <t>--able  (形容词 词根，  非重音, 多音节)</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>/keiv/</t>
+  </si>
+  <si>
+    <t>开音节，不要念成 /kæv/</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>un-- (词首，重音词根）</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /ˈʌn/， 注意不是 /en/</t>
+  </si>
+  <si>
+    <t>enter--</t>
+  </si>
+  <si>
+    <t>/en/  /em/  当后面词根有a 并发 /ə/ 时，重音在 en/em</t>
+  </si>
+  <si>
+    <t>/entə/</t>
+  </si>
+  <si>
+    <t>/iən/   会强夺前一音节的辅音，重音变前一音节， 是前音节发生读音变化  
+ə --&gt; ɔː
+ɪ--&gt; e</t>
+  </si>
+  <si>
+    <t>/əs/</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>/ən sɪ/  本身两个音节，同时倒三原则，在前一个音节上</t>
+  </si>
+  <si>
+    <t>/ən sɪ/</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>/ˈfɑːs(ə)l/</t>
+  </si>
+  <si>
+    <t>--sure</t>
+  </si>
+  <si>
+    <t>/ʒər/</t>
+  </si>
+  <si>
+    <t>leisure</t>
+  </si>
+  <si>
+    <t>--ure</t>
+  </si>
+  <si>
+    <t>/ər/  倒三原则</t>
+  </si>
+  <si>
+    <t>t+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/tʃər/ </t>
+  </si>
+  <si>
+    <t>s+</t>
+  </si>
+  <si>
+    <t>/tʃ/ chi</t>
+  </si>
+  <si>
+    <t>/ʃ/ shi</t>
+  </si>
+  <si>
+    <t>/ʒ/ zhe</t>
+  </si>
+  <si>
+    <t>/dʒ/  zhi</t>
+  </si>
+  <si>
+    <t>/z/ zi</t>
+  </si>
+  <si>
+    <t>/ts/ ci</t>
+  </si>
+  <si>
+    <t>/si/ si</t>
+  </si>
+  <si>
+    <t>d+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dʒər/ </t>
+  </si>
+  <si>
+    <t>safari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /səˈfɑːri/ </t>
+  </si>
+  <si>
+    <t>n. 动物园</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>/ˈkæs(ə)l/ </t>
+  </si>
+  <si>
+    <t>一定不要念 /sdl/</t>
+  </si>
+  <si>
+    <t>--stle</t>
+  </si>
+  <si>
+    <t>/s(ə)l/</t>
+  </si>
+  <si>
+    <t>occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /əˈkeɪʒn/</t>
+  </si>
+  <si>
+    <t>--asion</t>
+  </si>
+  <si>
+    <t>/eɪʒn/</t>
+  </si>
+  <si>
+    <t>occusion</t>
+  </si>
+  <si>
+    <t>注意oc读音</t>
+  </si>
+  <si>
+    <t>/ri:/    后接短音节词发 重音 ；  后接清辅音 次重音</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /re/   后接长音节词发 重音 ；  后接浊辅音 次重音</t>
+  </si>
+  <si>
+    <t>region   /ˈriːdʒən/</t>
+  </si>
+  <si>
+    <t>ʃənt/</t>
+  </si>
+  <si>
+    <t>---cient  (词尾，非重读）</t>
+  </si>
+  <si>
+    <t>ancient</t>
+  </si>
+  <si>
+    <t>excursion</t>
+  </si>
+  <si>
+    <t>/ʃən/ 重音在其前一个音节， 普遍与长元音 组合 ur o e,</t>
+  </si>
+  <si>
+    <t>costal</t>
+  </si>
+  <si>
+    <t>--stal</t>
+  </si>
+  <si>
+    <t>/st(ə)l/</t>
+  </si>
+  <si>
+    <t>--[r]ism (词尾，重音相关词根)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/izəm/   会强夺前一音节的辅音，重音变前一音节， 是前音节发生读音变化  </t>
+  </si>
+  <si>
+    <t>tourism</t>
+  </si>
+  <si>
+    <t>前一个元音音节</t>
+  </si>
+  <si>
+    <t>后一个元音音节</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1728,6 +2882,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1749,7 +2915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1824,6 +2990,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,10 +3284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +3300,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,546 +3327,615 @@
         <v>34</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>443</v>
+      <c r="B9" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
+      <c r="B10" s="22" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>56</v>
+      <c r="B11" s="22" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>274</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>309</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="C33" s="16"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="C34" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
-        <v>192</v>
+        <v>462</v>
       </c>
       <c r="C37" s="16"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="s">
-        <v>225</v>
+        <v>429</v>
       </c>
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
-        <v>374</v>
+        <v>182</v>
       </c>
       <c r="C39" s="16"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="22" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C40" s="16"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="C41" s="16"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
-        <v>454</v>
+        <v>213</v>
       </c>
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="C43" s="16"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
-        <v>459</v>
+        <v>567</v>
       </c>
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="22" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
+      <c r="B50" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
+      <c r="B51" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="11" t="s">
-        <v>212</v>
-      </c>
+      <c r="B52" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="22" t="s">
-        <v>153</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
-        <v>209</v>
+      <c r="B54" s="22" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
-        <v>471</v>
-      </c>
+      <c r="B55" s="22"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
-        <v>472</v>
+      <c r="B56" s="11" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="22" t="s">
-        <v>473</v>
+        <v>143</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="22" t="s">
-        <v>206</v>
-      </c>
+      <c r="B58" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="22" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="22" t="s">
-        <v>199</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="22" t="s">
-        <v>476</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="22" t="s">
-        <v>478</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="22" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="22" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="11"/>
+      <c r="B69" s="22" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
+      <c r="B70" s="22" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
-        <v>271</v>
+      <c r="B71" s="22" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="s">
-        <v>267</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="22" t="s">
-        <v>282</v>
+      <c r="B73" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="22" t="s">
-        <v>382</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
-        <v>385</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="22" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="22" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="22" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="22" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" s="22" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" s="22" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="22"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="21"/>
-    </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="22" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="20" t="s">
-        <v>97</v>
+      <c r="B93" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="C94" s="20" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C95" s="20" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C96" s="20" t="s">
-        <v>450</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" s="20" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="20" t="s">
-        <v>74</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="5" t="e">
+        <f>--cle</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="B105" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107" s="20" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="5" t="s">
-        <v>177</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="20" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
-        <v>400</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>208</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
-        <v>291</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C31:C49"/>
+  <mergeCells count="2">
+    <mergeCell ref="C34:C52"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2695,18 +3943,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2720,15 +3969,46 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C4" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -2738,16 +4018,297 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.85546875" style="3"/>
+    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="15.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="13.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2765,29 +4326,73 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C7" t="s">
+        <v>741</v>
+      </c>
+      <c r="D7" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +4400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2826,26 +4431,26 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="D3" s="23"/>
     </row>
@@ -2857,12 +4462,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,23 +4492,34 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -2911,12 +4527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,23 +4554,31 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -2962,12 +4586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,39 +4602,84 @@
     <col min="5" max="16384" width="18.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>737</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3020,21 +4689,1804 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D235"/>
+  <sheetViews>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="72" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="15"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="15"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="15"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="15"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A46:A47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3048,26 +6500,79 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>830</v>
+      </c>
+      <c r="C7" t="s">
+        <v>831</v>
+      </c>
+      <c r="E7" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -3075,12 +6580,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3131,109 +6636,120 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D15" t="s">
-        <v>429</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C16" t="s">
+        <v>793</v>
+      </c>
+      <c r="D16" t="s">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -3242,26 +6758,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,26 +6786,26 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -3314,934 +6816,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>182</v>
+      <c r="G1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E2" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -4251,10 +6877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4268,98 +6894,98 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4370,41 +6996,66 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>113</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>114</v>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -4417,7 +7068,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4432,21 +7083,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4471,80 +7122,80 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="F11" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="E12" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="F16" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,16 +7205,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,16 +7224,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C24" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="D24" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,24 +7243,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B28" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="C28" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="B29" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4619,21 +7270,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4647,27 +7301,108 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>482</v>
       </c>
       <c r="F1" t="s">
-        <v>421</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>426</v>
+        <v>400</v>
+      </c>
+      <c r="G2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C7" t="s">
+        <v>626</v>
+      </c>
+      <c r="E7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C8" t="s">
+        <v>628</v>
+      </c>
+      <c r="D8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E8" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -4677,13 +7412,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4699,7 +7437,29 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D3" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -4709,10 +7469,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4722,154 +7482,255 @@
     <col min="3" max="3" width="22.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="31" style="9" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="9"/>
-    <col min="9" max="9" width="17.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="9" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="9" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>109</v>
+        <v>733</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>166</v>
+        <v>509</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="J3" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="D10" s="24"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="D11" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>485</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4877,20 +7738,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4904,26 +7767,57 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" t="s">
-        <v>351</v>
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -4933,59 +7827,147 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="36.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" t="s">
-        <v>355</v>
+      <c r="E1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/单词纠正.xlsx
+++ b/单词纠正.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普遍规律" sheetId="8" r:id="rId1"/>
@@ -25,16 +25,18 @@
     <sheet name="G" sheetId="24" r:id="rId11"/>
     <sheet name="H" sheetId="23" r:id="rId12"/>
     <sheet name="I" sheetId="22" r:id="rId13"/>
-    <sheet name="L" sheetId="25" r:id="rId14"/>
-    <sheet name="M" sheetId="9" r:id="rId15"/>
-    <sheet name="N" sheetId="17" r:id="rId16"/>
-    <sheet name="O" sheetId="12" r:id="rId17"/>
-    <sheet name="P" sheetId="18" r:id="rId18"/>
-    <sheet name="R" sheetId="16" r:id="rId19"/>
-    <sheet name="S" sheetId="7" r:id="rId20"/>
-    <sheet name="T" sheetId="5" r:id="rId21"/>
-    <sheet name="V" sheetId="13" r:id="rId22"/>
-    <sheet name="W" sheetId="26" r:id="rId23"/>
+    <sheet name="J" sheetId="27" r:id="rId14"/>
+    <sheet name="L" sheetId="25" r:id="rId15"/>
+    <sheet name="M" sheetId="9" r:id="rId16"/>
+    <sheet name="N" sheetId="17" r:id="rId17"/>
+    <sheet name="O" sheetId="12" r:id="rId18"/>
+    <sheet name="P" sheetId="18" r:id="rId19"/>
+    <sheet name="Q" sheetId="28" r:id="rId20"/>
+    <sheet name="R" sheetId="16" r:id="rId21"/>
+    <sheet name="S" sheetId="7" r:id="rId22"/>
+    <sheet name="T" sheetId="5" r:id="rId23"/>
+    <sheet name="V" sheetId="13" r:id="rId24"/>
+    <sheet name="W" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="961">
   <si>
     <t>音标</t>
   </si>
@@ -874,9 +876,6 @@
     <t>constant</t>
   </si>
   <si>
-    <t>con +t</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -895,9 +894,6 @@
     <t>process, project</t>
   </si>
   <si>
-    <t xml:space="preserve"> x +清辅 -&gt; /k s/   分成两个音，前后各一,重音在第二个音节</t>
-  </si>
-  <si>
     <t>extensive</t>
   </si>
   <si>
@@ -920,31 +916,6 @@
   </si>
   <si>
     <t>自身重音</t>
-  </si>
-  <si>
-    <r>
-      <t>/rɪ/  非重音   通常不做重音，但是遵守</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  名前 动后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  原则</t>
-    </r>
   </si>
   <si>
     <t>--ible</t>
@@ -1027,9 +998,6 @@
   </si>
   <si>
     <t>theory</t>
-  </si>
-  <si>
-    <t>反例category 前面是g</t>
   </si>
   <si>
     <t>copy</t>
@@ -1902,12 +1870,6 @@
     <t>pre-- （词首，非重音）</t>
   </si>
   <si>
-    <t xml:space="preserve"> /prɪˈ</t>
-  </si>
-  <si>
-    <t>prepare  /prɪˈper/</t>
-  </si>
-  <si>
     <t>--ete</t>
   </si>
   <si>
@@ -2188,9 +2150,6 @@
   </si>
   <si>
     <t>composition</t>
-  </si>
-  <si>
-    <t>/'kɑːm/</t>
   </si>
   <si>
     <t>com-- (词首，重音,次重音)</t>
@@ -2362,9 +2321,6 @@
     <t>--tra (词尾，非重读）</t>
   </si>
   <si>
-    <t>dis--</t>
-  </si>
-  <si>
     <t>discount</t>
   </si>
   <si>
@@ -2444,9 +2400,6 @@
     <t>fortune</t>
   </si>
   <si>
-    <t xml:space="preserve"> com/con + s，f，g, cer/sə/</t>
-  </si>
-  <si>
     <t>concert</t>
   </si>
   <si>
@@ -2547,9 +2500,6 @@
     <t>brother</t>
   </si>
   <si>
-    <t>--age</t>
-  </si>
-  <si>
     <t>/ɪdʒ/</t>
   </si>
   <si>
@@ -2560,9 +2510,6 @@
   </si>
   <si>
     <t>embassy, entrance</t>
-  </si>
-  <si>
-    <t>recreation  /ˌriːkriˈeɪʃn; ˌrekriˈeɪʃən/</t>
   </si>
   <si>
     <t>o+th</t>
@@ -2780,12 +2727,6 @@
     <t>注意oc读音</t>
   </si>
   <si>
-    <t>/ri:/    后接短音节词发 重音 ；  后接清辅音 次重音</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /re/   后接长音节词发 重音 ；  后接浊辅音 次重音</t>
-  </si>
-  <si>
     <t>region   /ˈriːdʒən/</t>
   </si>
   <si>
@@ -2826,6 +2767,393 @@
   </si>
   <si>
     <t>后一个元音音节</t>
+  </si>
+  <si>
+    <t>as it is</t>
+  </si>
+  <si>
+    <t>副词，状语</t>
+  </si>
+  <si>
+    <t>事实上，照目前这样</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>What we have is data on the world as it is/</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>recreation  /ˌriːkriˈeɪʃn; ˌrekriˈeɪʃən/  represent</t>
+  </si>
+  <si>
+    <t>/ri:/ + gion    后接短音节词发 重音 ；  后接清辅音 次重音</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /re/ + cre, pre,fer  后接长音节词发 重音 ；  后接浊辅音 次重音</t>
+  </si>
+  <si>
+    <r>
+      <t>/rɪ/  + que 非重音   通常不做重音，但是遵守</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  名前 动后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  原则, 有“重复的” 含义</t>
+    </r>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈəʊʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>n. 海洋</t>
+  </si>
+  <si>
+    <t>oceania</t>
+  </si>
+  <si>
+    <t>n. 大洋洲</t>
+  </si>
+  <si>
+    <t>注意 ea 被分开， a归后音节做重音</t>
+  </si>
+  <si>
+    <t>--age ， 不包含rage</t>
+  </si>
+  <si>
+    <t>--ania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/niə/   会强夺前一音节的元音，重音变前一音节， 是前音节发生读音变化  </t>
+  </si>
+  <si>
+    <t>oce’ania</t>
+  </si>
+  <si>
+    <t>oceanian</t>
+  </si>
+  <si>
+    <t>注意cean 直接发 ʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>注意音标读音和口语读音</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˌoʊʃiˈɑːniən/  有口语做/ˈəʊʃ(ə) niən/</t>
+  </si>
+  <si>
+    <t>oce'ania</t>
+  </si>
+  <si>
+    <t>/ˌoʊʃiˈɑ:niə/</t>
+  </si>
+  <si>
+    <t>pre-- （词首，重音）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare  /prɪˈper/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">previous  /ˈpriːviəs/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /prɪˈ  + e</t>
+  </si>
+  <si>
+    <t>/pri:/  + iə</t>
+  </si>
+  <si>
+    <t>/pre/ +  ə</t>
+  </si>
+  <si>
+    <t>/'kɑːm/ ， 后跟 b, p, m 等闭口辅音时，用com， 类似的还有col， cor 都是con变形而来</t>
+  </si>
+  <si>
+    <t>con + s，f，g, cer/sə/</t>
+  </si>
+  <si>
+    <t>con +t， p， b</t>
+  </si>
+  <si>
+    <t>present   /ˈprez(ə)nt/  ，present(当前的)/'president(首领)/'premium(优质的)/'pressure(压力)</t>
+  </si>
+  <si>
+    <t>--quare--</t>
+  </si>
+  <si>
+    <t>/kwe ər/</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>反例category 前面是g  /ɡɔːri/</t>
+  </si>
+  <si>
+    <t>--ere</t>
+  </si>
+  <si>
+    <t>/ɪə/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> /ˈd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eɪn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dʒərəs/ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">不是 /ˈdæn/ </t>
+  </si>
+  <si>
+    <t>u&gt;e&gt;a&gt;i</t>
+  </si>
+  <si>
+    <t>dis--  des--</t>
+  </si>
+  <si>
+    <t>jeopardise</t>
+  </si>
+  <si>
+    <t>/ˈdʒepərdaɪz/</t>
+  </si>
+  <si>
+    <t>vt 危及，危害</t>
+  </si>
+  <si>
+    <t>harm</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>quar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /kwɔːr</t>
+  </si>
+  <si>
+    <t>quartz</t>
+  </si>
+  <si>
+    <t>quarts</t>
+  </si>
+  <si>
+    <t>/kwɔːrts/</t>
+  </si>
+  <si>
+    <t>n. 石英</t>
+  </si>
+  <si>
+    <t>thermo---(词根，重音）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈθɜːrmoʊ/</t>
+  </si>
+  <si>
+    <t>thermo</t>
+  </si>
+  <si>
+    <t>--ought</t>
+  </si>
+  <si>
+    <t>aʊt/</t>
+  </si>
+  <si>
+    <t>drought</t>
+  </si>
+  <si>
+    <t>--oo--</t>
+  </si>
+  <si>
+    <t>/ʌ/</t>
+  </si>
+  <si>
+    <t>--cier</t>
+  </si>
+  <si>
+    <t>/iər/</t>
+  </si>
+  <si>
+    <t>--eau</t>
+  </si>
+  <si>
+    <t>/oʊ/</t>
+  </si>
+  <si>
+    <t>plateau</t>
+  </si>
+  <si>
+    <t>--ar</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x +清辅或 元x元-&gt; /k s/   分成两个音，前后各一,重音在第二个音节</t>
+  </si>
+  <si>
+    <t>extensive， axis</t>
+  </si>
+  <si>
+    <t>/ɡreid/</t>
+  </si>
+  <si>
+    <t>--grade (词尾，重音)</t>
+  </si>
+  <si>
+    <t>ar--</t>
+  </si>
+  <si>
+    <t>/ˌɑːr</t>
+  </si>
+  <si>
+    <t>--che--  (词中，非重音节) + 重音节</t>
+  </si>
+  <si>
+    <t>archeology   /ˌɑːrkiˈɑːlədʒi/</t>
+  </si>
+  <si>
+    <t>compiling</t>
+  </si>
+  <si>
+    <t>v 编写，编纂</t>
+  </si>
+  <si>
+    <t>compelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /kəmˈpaɪlɪŋ/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /kəmˈpelɪŋ/</t>
+  </si>
+  <si>
+    <t>adj. 令人信服的，有说服力的；
+v. 强迫，迫使；</t>
+  </si>
+  <si>
+    <t>注意上下两词的区别</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /reɪz/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不是/rai/ </t>
+  </si>
+  <si>
+    <t>v. 提升，举起；</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>/əti/</t>
+  </si>
+  <si>
+    <t>obesity</t>
+  </si>
+  <si>
+    <t>--ity  (词尾，重音相关音节）</t>
+  </si>
+  <si>
+    <t>/əti/ ， 重音在前一个音节</t>
+  </si>
+  <si>
+    <t>--nary (词尾，不参与重音）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neri/ </t>
+  </si>
+  <si>
+    <t>evolutionary</t>
+  </si>
+  <si>
+    <t>popularity</t>
+  </si>
+  <si>
+    <t>obesity,popularity</t>
+  </si>
+  <si>
+    <t>calciums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auditorium ,calciums </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈkælsiəm/ </t>
+  </si>
+  <si>
+    <t>n. 钙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ˌpɑːpjuˈlærəti/ </t>
+  </si>
+  <si>
+    <t>注意重音音节</t>
+  </si>
+  <si>
+    <t>n. 流行，普及</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>/kaɪ</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈɑːrkaɪv/ </t>
+  </si>
+  <si>
+    <t>注意chi的发音（开音节</t>
+  </si>
+  <si>
+    <t>--chi --  (词中， 开音节</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +3243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3003,6 +3331,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3284,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,12 +3632,12 @@
     <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -3313,13 +3647,16 @@
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3327,17 +3664,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -3345,69 +3682,69 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -3415,27 +3752,27 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
@@ -3445,12 +3782,12 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -3466,10 +3803,10 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -3477,30 +3814,30 @@
         <v>48</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C35" s="16"/>
     </row>
     <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C37" s="16"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C38" s="16"/>
     </row>
@@ -3518,7 +3855,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C41" s="16"/>
     </row>
@@ -3530,72 +3867,72 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C43" s="16"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="22" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C51" s="16"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C52" s="16"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="22" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="22" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -3603,7 +3940,7 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -3611,7 +3948,7 @@
         <v>143</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -3622,17 +3959,17 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="22" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="22" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -3642,7 +3979,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -3652,105 +3989,105 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="22" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="22" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="22" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="22" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="22" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="22" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B81" s="22" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" s="22" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" s="22" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,7 +4097,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" s="22" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3810,33 +4147,32 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C96" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C98" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C99" s="20" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="5" t="e">
-        <f>--cle</f>
-        <v>#NAME?</v>
+      <c r="C100" s="20" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>89</v>
@@ -3869,17 +4205,17 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" s="20" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112" s="20" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="20" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
@@ -3909,7 +4245,7 @@
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
@@ -3919,7 +4255,7 @@
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
@@ -3929,7 +4265,7 @@
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3969,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3991,24 +4327,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -4046,50 +4382,50 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>596</v>
-      </c>
       <c r="D2" s="23" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -4130,38 +4466,38 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>130</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -4198,30 +4534,30 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -4230,6 +4566,69 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C2" t="s">
+        <v>894</v>
+      </c>
+      <c r="E2" t="s">
+        <v>895</v>
+      </c>
+      <c r="F2" t="s">
+        <v>897</v>
+      </c>
+      <c r="G2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -4260,32 +4659,32 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>130</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D3" s="23"/>
     </row>
@@ -4297,7 +4696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -4342,13 +4741,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4364,35 +4763,35 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C5" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D5" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C6" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D6" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D7" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4436,21 +4835,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>338</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D3" s="23"/>
     </row>
@@ -4462,23 +4861,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="9" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4492,15 +4893,24 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>179</v>
       </c>
@@ -4511,74 +4921,54 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="30" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>843</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C4" t="s">
-        <v>542</v>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -4588,10 +4978,2143 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C5" t="s">
+        <v>952</v>
+      </c>
+      <c r="D5" t="s">
+        <v>953</v>
+      </c>
+      <c r="E5" t="s">
+        <v>954</v>
+      </c>
+      <c r="F5" t="s">
+        <v>955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D248"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="72" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="15"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="15"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A52:A53"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E2" t="s">
+        <v>903</v>
+      </c>
+      <c r="F2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,16 +7139,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4647,38 +7170,55 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>737</v>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -4689,1790 +7229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D235"/>
-  <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="72" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>635</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>723</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
-        <v>745</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-    </row>
-    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D184" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="15"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A46:A47"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -6500,16 +7257,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6525,54 +7282,54 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" t="s">
         <v>490</v>
       </c>
-      <c r="C4" t="s">
-        <v>494</v>
-      </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D5" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C6" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D6" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="C7" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="E7" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -6580,7 +7337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -6647,109 +7404,109 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>368</v>
-      </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="C16" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D16" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -6758,7 +7515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -6802,10 +7559,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -6816,7 +7573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -6844,30 +7601,30 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="C2" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="D2" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="E2" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -6905,15 +7662,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6923,53 +7680,53 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7022,7 +7779,7 @@
         <v>108</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7030,32 +7787,32 @@
         <v>109</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -7067,13 +7824,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -7083,21 +7840,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7120,6 +7877,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>847</v>
+      </c>
+      <c r="B6" t="s">
+        <v>848</v>
+      </c>
+      <c r="C6" t="s">
+        <v>849</v>
+      </c>
+      <c r="D6" t="s">
+        <v>850</v>
+      </c>
+      <c r="F6" t="s">
+        <v>851</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>141</v>
@@ -7127,53 +7906,53 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" t="s">
         <v>316</v>
-      </c>
-      <c r="E11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7183,19 +7962,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" t="s">
         <v>305</v>
-      </c>
-      <c r="B16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" t="s">
-        <v>306</v>
-      </c>
-      <c r="D16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F16" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7205,16 +7984,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,16 +8003,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7243,24 +8022,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28" t="s">
         <v>386</v>
       </c>
-      <c r="B28" t="s">
-        <v>390</v>
-      </c>
       <c r="C28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C29" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -7270,10 +8049,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7301,108 +8080,119 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D4" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C5" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D5" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" t="s">
         <v>624</v>
       </c>
-      <c r="C8" t="s">
-        <v>628</v>
-      </c>
-      <c r="D8" t="s">
-        <v>630</v>
-      </c>
       <c r="E8" t="s">
-        <v>629</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>957</v>
+      </c>
+      <c r="C9" t="s">
+        <v>958</v>
+      </c>
+      <c r="D9" t="s">
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -7442,24 +8232,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -7469,10 +8259,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7481,7 +8271,8 @@
     <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="31" style="9" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="9"/>
+    <col min="5" max="5" width="34.140625" style="9" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="9"/>
     <col min="9" max="9" width="26.28515625" style="9" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="9" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="9" customWidth="1"/>
@@ -7502,16 +8293,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7528,7 +8319,7 @@
         <v>106</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>733</v>
+        <v>880</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>29</v>
@@ -7537,19 +8328,19 @@
         <v>236</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7563,32 +8354,32 @@
         <v>158</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>237</v>
+        <v>881</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7596,141 +8387,180 @@
         <v>133</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D12" s="24"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>835</v>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="10" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="9" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7738,10 +8568,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7767,16 +8597,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7789,35 +8619,46 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>713</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -7858,16 +8699,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7883,91 +8724,91 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/单词纠正.xlsx
+++ b/单词纠正.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="708" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="708" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="普遍规律" sheetId="8" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1649">
   <si>
     <t>音标</t>
   </si>
@@ -5484,6 +5484,30 @@
   </si>
   <si>
     <t>v. 加插图于；说明，</t>
+  </si>
+  <si>
+    <t>名词后缀，非重音，从事…的人</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/lɔːs/ </t>
+  </si>
+  <si>
+    <t>n. 失去，丧失；亏损；死</t>
+  </si>
+  <si>
+    <t>/luːz/</t>
+  </si>
+  <si>
+    <t>v. 遗失，丢失；失去（</t>
+  </si>
+  <si>
+    <t>注意元音 是 u:</t>
   </si>
 </sst>
 </file>
@@ -7874,8 +7898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8194,10 +8218,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8251,6 +8275,31 @@
         <v>622</v>
       </c>
       <c r="D3" s="34"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1647</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10227,7 +10276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A136" sqref="A136:C138"/>
     </sheetView>
   </sheetViews>
@@ -12238,10 +12287,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12407,31 +12456,29 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>1116</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>1047</v>
+        <v>1641</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1122</v>
+        <v>1049</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>442</v>
+        <v>1116</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1047</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1266</v>
+        <v>1122</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>475</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -12439,103 +12486,114 @@
         <v>442</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1266</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1369</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>1370</v>
+      <c r="A17" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1048</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1266</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>1371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>1409</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>1410</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>1411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>1541</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>1539</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -12544,64 +12602,53 @@
       <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>1095</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>1188</v>
+        <v>1123</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1189</v>
+        <v>1125</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1190</v>
+        <v>1126</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>159</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>146</v>
+        <v>1188</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1164</v>
+        <v>1189</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1165</v>
+        <v>1190</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>1166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -12609,67 +12656,78 @@
         <v>146</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>1392</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
@@ -12681,493 +12739,493 @@
       <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>1150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>1045</v>
+        <v>662</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1122</v>
+        <v>1049</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>1534</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>1229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>1054</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>1064</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>1517</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>1265</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>1199</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B73" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B75" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>1367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>1379</v>
+        <v>1232</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>1363</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>1415</v>
+        <v>802</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1366</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>1363</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>1413</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>1207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D88" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="5" t="s">
         <v>1171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>1169</v>
+        <v>1015</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="5" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="5" t="s">
         <v>974</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>1218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>1212</v>
+        <v>89</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1213</v>
+        <v>1047</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>1214</v>
+        <v>1082</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>150</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>1226</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>1175</v>
+        <v>1215</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1085</v>
+        <v>1216</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>1176</v>
+        <v>1217</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>1439</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>1227</v>
+        <v>1175</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1085</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C105" s="5" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
@@ -13177,128 +13235,117 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="D108" s="5" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="D109" s="5" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>1119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>255</v>
+        <v>1049</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>1144</v>
+        <v>1121</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1047</v>
       </c>
       <c r="C112" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="5" t="s">
+    </row>
+    <row r="117" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+    <row r="118" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+    <row r="119" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B119" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D119" s="5" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
         <v>1019</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B120" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C120" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>1040</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>58</v>
@@ -13306,690 +13353,704 @@
     </row>
     <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>1039</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="5" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D124" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="5" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="5" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>1069</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>1072</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>1073</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>1533</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D131" s="5" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B135" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B136" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C136" s="5" t="s">
         <v>1223</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+    <row r="137" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B137" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>1219</v>
+    <row r="139" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>1057</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>1254</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>205</v>
+        <v>1221</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>1219</v>
       </c>
       <c r="C140" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B142" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C142" s="5" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="5" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="5" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D145" s="5" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B146" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B147" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C147" s="5" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B148" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C148" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D148" s="5" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C150" s="5" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>1523</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C151" s="5" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="5" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="5" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D158" s="5" t="s">
         <v>1105</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1261</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B161" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C161" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D161" s="5" t="s">
         <v>1237</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1132</v>
+        <v>1085</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>1259</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>1137</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C164" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D164" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B165" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C165" s="5" t="s">
         <v>1139</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B167" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C167" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D167" s="5" t="s">
         <v>1246</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1243</v>
+        <v>1179</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1244</v>
+        <v>1180</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>1245</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B170" s="5" t="s">
         <v>1256</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C170" s="5" t="s">
         <v>1257</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+    <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B175" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C175" s="29" t="s">
         <v>1077</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D175" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="C175" s="29"/>
     </row>
     <row r="176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="C176" s="29"/>
-      <c r="D176" s="5" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="C177" s="29"/>
       <c r="D177" s="5" t="s">
-        <v>1154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="C178" s="29"/>
       <c r="D178" s="5" t="s">
-        <v>1194</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="C179" s="29"/>
       <c r="D179" s="5" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="5" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D181" s="5" t="s">
         <v>1268</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>1248</v>
+        <v>97</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1152</v>
+        <v>1047</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>1153</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>1191</v>
+        <v>1248</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1192</v>
+        <v>1152</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>1193</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>1224</v>
+        <v>1191</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1132</v>
+        <v>1192</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>1225</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>427</v>
+        <v>1224</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1047</v>
+        <v>1132</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>1267</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D188" s="5" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="5" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C194" s="5" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D197" s="5" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D198" s="5" t="s">
-        <v>1087</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D199" s="5" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="5" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>1085</v>
       </c>
       <c r="C203" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C204" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+    <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B205" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C205" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D205" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="C207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C208" s="3" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C210" s="3" t="s">
         <v>685</v>
       </c>
     </row>

--- a/单词纠正.xlsx
+++ b/单词纠正.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="708" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="708" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="普遍规律" sheetId="8" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="1649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1657">
   <si>
     <t>音标</t>
   </si>
@@ -5504,10 +5504,34 @@
     <t>/luːz/</t>
   </si>
   <si>
-    <t>v. 遗失，丢失；失去（</t>
-  </si>
-  <si>
     <t>注意元音 是 u:</t>
+  </si>
+  <si>
+    <t>v. 遗失，丢失；失去</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequately </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ˈædɪkwətli/ </t>
+  </si>
+  <si>
+    <t>adv.充分地</t>
+  </si>
+  <si>
+    <t>prepare adequately for</t>
+  </si>
+  <si>
+    <t>kwə/ɪ ~=亏 t在l前被吞掉</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈdespərət/   /ˈdesprɪt/ </t>
+  </si>
+  <si>
+    <t>adj. 不顾一切的</t>
   </si>
 </sst>
 </file>
@@ -5688,6 +5712,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5707,15 +5740,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6192,7 +6216,7 @@
       <c r="B35" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6200,109 +6224,109 @@
       <c r="B36" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="36"/>
     </row>
     <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C38" s="33"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="36"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="33"/>
+      <c r="C41" s="36"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C42" s="33"/>
+      <c r="C42" s="36"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="33"/>
+      <c r="C43" s="36"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="36"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="36"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="C46" s="33"/>
+      <c r="C46" s="36"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="33"/>
+      <c r="C47" s="36"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="33"/>
+      <c r="C48" s="36"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="36"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C50" s="33"/>
+      <c r="C50" s="36"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="C51" s="33"/>
+      <c r="C51" s="36"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="C52" s="33"/>
+      <c r="C52" s="36"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="C53" s="33"/>
+      <c r="C53" s="36"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
@@ -6326,7 +6350,7 @@
       <c r="B58" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="37" t="s">
         <v>755</v>
       </c>
     </row>
@@ -6334,7 +6358,7 @@
       <c r="B59" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="34"/>
+      <c r="C59" s="37"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
@@ -6662,7 +6686,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6800,7 +6824,7 @@
       <c r="C9" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="40" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6811,7 +6835,7 @@
       <c r="C10" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -6820,7 +6844,7 @@
       <c r="C11" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -6829,7 +6853,7 @@
       <c r="C12" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -6926,7 +6950,7 @@
       <c r="C26" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="41" t="s">
         <v>938</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -6940,7 +6964,7 @@
       <c r="C27" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="10" t="s">
         <v>937</v>
       </c>
@@ -7155,17 +7179,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="34" style="3" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
@@ -7385,6 +7409,17 @@
       </c>
       <c r="E21" s="3" t="s">
         <v>1587</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1656</v>
       </c>
     </row>
   </sheetData>
@@ -7751,7 +7786,7 @@
       <c r="C2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7762,7 +7797,7 @@
       <c r="C3" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -8220,7 +8255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -8266,7 +8301,7 @@
       <c r="C2" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8274,7 +8309,7 @@
       <c r="C3" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
@@ -8295,10 +8330,10 @@
         <v>1646</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>1648</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1647</v>
       </c>
     </row>
   </sheetData>
@@ -8436,7 +8471,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="38" t="s">
         <v>988</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -8444,19 +8479,19 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="3" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="3" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="3" t="s">
         <v>993</v>
       </c>
@@ -8897,7 +8932,7 @@
       <c r="E19" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="35" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -8956,7 +8991,7 @@
       <c r="C2" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8967,7 +9002,7 @@
       <c r="C3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -9443,7 +9478,7 @@
       <c r="C2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="42" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9451,7 +9486,7 @@
       <c r="C3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -10262,7 +10297,7 @@
       <c r="B20" t="s">
         <v>1506</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="33" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -10277,7 +10312,7 @@
   <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:C138"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10745,7 +10780,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="39" t="s">
         <v>636</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -10756,7 +10791,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="3" t="s">
         <v>637</v>
       </c>
@@ -12954,7 +12989,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>1195</v>
       </c>
@@ -13011,7 +13046,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="34" t="s">
         <v>689</v>
       </c>
       <c r="B75" s="13" t="s">
@@ -14477,10 +14512,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14661,7 +14696,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1572</v>
       </c>
@@ -14672,7 +14707,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1293</v>
       </c>
@@ -14683,7 +14718,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1347</v>
       </c>
@@ -14697,7 +14732,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1355</v>
       </c>
@@ -14705,7 +14740,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1352</v>
       </c>
@@ -14713,9 +14748,26 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1652</v>
       </c>
     </row>
   </sheetData>

--- a/单词纠正.xlsx
+++ b/单词纠正.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="708" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="708" firstSheet="2" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="普遍规律" sheetId="8" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1701">
   <si>
     <t>音标</t>
   </si>
@@ -4837,9 +4837,6 @@
     <t xml:space="preserve">/ˈsiːkrət/ </t>
   </si>
   <si>
-    <t>注意是的se是 si: , 而后面cre的 krə/ 可以发 krɪ</t>
-  </si>
-  <si>
     <t>prefer</t>
   </si>
   <si>
@@ -5532,6 +5529,163 @@
   </si>
   <si>
     <t>adj. 不顾一切的</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>--tigue</t>
+  </si>
+  <si>
+    <t>重音，</t>
+  </si>
+  <si>
+    <t>ˈtiːɡ/ 前一音节轻读</t>
+  </si>
+  <si>
+    <t>extraordinarily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ɪkˌstrɔːrdəˈne(r)əli/ </t>
+  </si>
+  <si>
+    <t>adv. 极其，极端地；非常奇怪地</t>
+  </si>
+  <si>
+    <t>学习前缀的发音， aor的连续发音， narily 的 ne rəli 的发音</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> buried</t>
+  </si>
+  <si>
+    <t>/ˈberid/</t>
+  </si>
+  <si>
+    <t>注意bu的发音时 be不是ju</t>
+  </si>
+  <si>
+    <t>memorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /məˈmɔːriəl/</t>
+  </si>
+  <si>
+    <t>注意和memory的区别， me 是 /mə/ 重音在mor上</t>
+  </si>
+  <si>
+    <t>taught</t>
+  </si>
+  <si>
+    <t>/tɔːt/</t>
+  </si>
+  <si>
+    <t>--augh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">augh 发音ɔː </t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /pəˈsɪfɪk/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意Pa 不是Pæ </t>
+  </si>
+  <si>
+    <t>simulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ˈstɪmjuleɪt/ </t>
+  </si>
+  <si>
+    <t>v. 促进，激发（某事物）；</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈsɪmjuleɪt/ </t>
+  </si>
+  <si>
+    <t>v. 假装，冒充；模拟，模仿</t>
+  </si>
+  <si>
+    <t>与上词就差一个字母 t</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imulate</t>
+    </r>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈvʌlnərəb(ə)l/ </t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>/ˌvɑːlənˈtɪr/</t>
+  </si>
+  <si>
+    <t>n. 志愿者，义务工作者</t>
+  </si>
+  <si>
+    <t>adj. （身体或精神）脆弱的，易受伤的；   ʌl ~=əl</t>
+  </si>
+  <si>
+    <t>lecturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˈlek(t)ʃərər/ </t>
+  </si>
+  <si>
+    <t>t 被省略掉， (t)ʃ 变成 ʃ</t>
+  </si>
+  <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ˈtɪpɪk(ə)l/ </t>
+  </si>
+  <si>
+    <t>注意是 /ˈtɪ，  不是tai</t>
+  </si>
+  <si>
+    <t>compatible</t>
+  </si>
+  <si>
+    <t>competitive</t>
+  </si>
+  <si>
+    <t>adj. 竞争的；好竞争的</t>
+  </si>
+  <si>
+    <t>adj. 兼容的；可共存的；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意是的se是 si: , 而后面cre的 krə/ 可以发 krɪ, 而secretary 是/ˈsekrəteri/ </t>
   </si>
 </sst>
 </file>
@@ -5621,7 +5775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -5719,6 +5873,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6216,7 +6373,7 @@
       <c r="B35" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6224,109 +6381,109 @@
       <c r="B36" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="37"/>
     </row>
     <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="37"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C38" s="36"/>
+      <c r="C38" s="37"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="C39" s="36"/>
+      <c r="C39" s="37"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="37"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="37"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="37"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="37"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="C44" s="36"/>
+      <c r="C44" s="37"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="C45" s="36"/>
+      <c r="C45" s="37"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="C46" s="36"/>
+      <c r="C46" s="37"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="37"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="36"/>
+      <c r="C48" s="37"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="37"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="37"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="37"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="37"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
@@ -6350,7 +6507,7 @@
       <c r="B58" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="38" t="s">
         <v>755</v>
       </c>
     </row>
@@ -6358,7 +6515,7 @@
       <c r="B59" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="37"/>
+      <c r="C59" s="38"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
@@ -6682,11 +6839,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6824,7 +6981,7 @@
       <c r="C9" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="41" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6835,7 +6992,7 @@
       <c r="C10" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -6844,7 +7001,7 @@
       <c r="C11" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -6853,7 +7010,7 @@
       <c r="C12" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -6950,7 +7107,7 @@
       <c r="C26" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="42" t="s">
         <v>938</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -6964,7 +7121,7 @@
       <c r="C27" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="10" t="s">
         <v>937</v>
       </c>
@@ -7008,41 +7165,41 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>1454</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>1455</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>1459</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="36" spans="2:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="26" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>1469</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>1470</v>
-      </c>
       <c r="D36" s="26" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -7050,121 +7207,137 @@
         <v>159</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>1542</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>1544</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>1548</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>1549</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>649</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1547</v>
-      </c>
       <c r="E42" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>1554</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>1597</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>1598</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>1599</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>1622</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E46" s="25" t="s">
         <v>1623</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>1626</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>1627</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>1633</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>1634</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>1636</v>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="36" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
@@ -7181,8 +7354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7311,79 +7484,79 @@
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>1461</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>1560</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>1562</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>1564</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1566</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>1577</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>1578</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>1580</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -7391,35 +7564,35 @@
         <v>914</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>1585</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1586</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>1655</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1656</v>
       </c>
     </row>
   </sheetData>
@@ -7429,17 +7602,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="13.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="3" customWidth="1"/>
     <col min="4" max="5" width="36.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -7613,6 +7786,20 @@
         <v>1346</v>
       </c>
     </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7620,7 +7807,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -7708,27 +7895,32 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>1609</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C8" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D8" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>1612</v>
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1656</v>
       </c>
     </row>
   </sheetData>
@@ -7786,7 +7978,7 @@
       <c r="C2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7797,7 +7989,7 @@
       <c r="C3" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -7915,13 +8107,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>1557</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>1558</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1559</v>
       </c>
     </row>
   </sheetData>
@@ -8015,16 +8207,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C5" t="s">
         <v>1637</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1638</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1639</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8253,10 +8445,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8301,7 +8493,7 @@
       <c r="C2" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8309,31 +8501,42 @@
       <c r="C3" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>1644</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1646</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>1647</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>1648</v>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -8349,7 +8552,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8471,7 +8674,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="39" t="s">
         <v>988</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -8479,19 +8682,19 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="3" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="3" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="3" t="s">
         <v>993</v>
       </c>
@@ -8719,10 +8922,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8880,68 +9083,79 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>1450</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1526</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1527</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>1528</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1619</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>1620</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>1595</v>
-      </c>
       <c r="G19" s="35" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1669</v>
       </c>
     </row>
   </sheetData>
@@ -8991,7 +9205,7 @@
       <c r="C2" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9002,7 +9216,7 @@
       <c r="C3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -9133,13 +9347,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>1519</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>1520</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -9150,7 +9364,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -9302,55 +9516,66 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1446</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>1448</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1514</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1515</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1604</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1605</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1615</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>1617</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>1618</v>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -9415,13 +9640,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C3" t="s">
         <v>1479</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1480</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1481</v>
       </c>
     </row>
   </sheetData>
@@ -9478,7 +9703,7 @@
       <c r="C2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9486,7 +9711,7 @@
       <c r="C3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -9543,43 +9768,43 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1475</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1477</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
   </sheetData>
@@ -9592,10 +9817,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9784,15 +10009,15 @@
         <v>1444</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1445</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1512</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -9809,17 +10034,43 @@
         <v>1279</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>1679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10011,10 +10262,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C20" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -10022,33 +10273,44 @@
         <v>1209</v>
       </c>
       <c r="C21" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D21" t="s">
         <v>1482</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E24" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1588</v>
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1695</v>
       </c>
     </row>
   </sheetData>
@@ -10059,15 +10321,16 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10110,8 +10373,31 @@
         <v>46</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10178,7 +10464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -10191,10 +10477,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10202,15 +10488,15 @@
         <v>1209</v>
       </c>
       <c r="C2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D2" t="s">
         <v>1482</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>327</v>
@@ -10224,29 +10510,29 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B7" t="s">
         <v>1484</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C8" t="s">
         <v>1486</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B10" t="s">
         <v>1479</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1480</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -10262,43 +10548,43 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B16" t="s">
         <v>1498</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>1499</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B18" t="s">
         <v>1501</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1502</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B20" t="s">
         <v>1505</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="33" t="s">
         <v>1506</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>1507</v>
       </c>
     </row>
   </sheetData>
@@ -10684,7 +10970,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>840</v>
@@ -10695,13 +10981,13 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>1508</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="3" t="s">
         <v>1509</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -10780,7 +11066,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>636</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -10791,7 +11077,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="3" t="s">
         <v>637</v>
       </c>
@@ -11351,13 +11637,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>1601</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>1602</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -12324,8 +12610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12453,7 +12739,7 @@
         <v>997</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1003</v>
@@ -12493,7 +12779,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1049</v>
@@ -12588,13 +12874,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>188</v>
@@ -12602,16 +12888,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>1538</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>1539</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -12621,13 +12907,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -12900,16 +13186,16 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>1534</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="D58" s="5" t="s">
         <v>1536</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -12994,7 +13280,7 @@
         <v>1195</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>1265</v>
@@ -13472,13 +13758,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>1531</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -13651,10 +13937,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>1523</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -13828,13 +14114,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>1601</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>1602</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -13977,6 +14263,20 @@
       </c>
       <c r="C187" s="3" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -14260,7 +14560,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -14512,10 +14812,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14698,13 +14998,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C18" t="s">
         <v>1572</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>1573</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -14755,19 +15055,40 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C29" t="s">
         <v>1649</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E29" t="s">
         <v>1650</v>
       </c>
-      <c r="D29" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>1651</v>
       </c>
-      <c r="F29" t="s">
-        <v>1652</v>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -14778,10 +15099,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14850,16 +15171,27 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C6" t="s">
         <v>1629</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1630</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1631</v>
       </c>
-      <c r="E6" t="s">
-        <v>1632</v>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1666</v>
       </c>
     </row>
   </sheetData>

--- a/单词纠正.xlsx
+++ b/单词纠正.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="708" firstSheet="2" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="708" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="普遍规律" sheetId="8" r:id="rId1"/>
@@ -18,31 +18,33 @@
     <sheet name="重音规律、词根、多音词根" sheetId="4" r:id="rId4"/>
     <sheet name="重音规律词根" sheetId="29" r:id="rId5"/>
     <sheet name="词间连读" sheetId="10" r:id="rId6"/>
-    <sheet name="词组" sheetId="6" r:id="rId7"/>
-    <sheet name="A" sheetId="1" r:id="rId8"/>
-    <sheet name="B" sheetId="2" r:id="rId9"/>
-    <sheet name="C" sheetId="11" r:id="rId10"/>
-    <sheet name="D" sheetId="3" r:id="rId11"/>
-    <sheet name="E" sheetId="14" r:id="rId12"/>
-    <sheet name="F" sheetId="15" r:id="rId13"/>
-    <sheet name="G" sheetId="24" r:id="rId14"/>
-    <sheet name="H" sheetId="23" r:id="rId15"/>
-    <sheet name="I" sheetId="22" r:id="rId16"/>
-    <sheet name="J" sheetId="27" r:id="rId17"/>
-    <sheet name="K" sheetId="31" r:id="rId18"/>
-    <sheet name="L" sheetId="25" r:id="rId19"/>
-    <sheet name="M" sheetId="9" r:id="rId20"/>
-    <sheet name="N" sheetId="17" r:id="rId21"/>
-    <sheet name="O" sheetId="12" r:id="rId22"/>
-    <sheet name="P" sheetId="18" r:id="rId23"/>
-    <sheet name="Q" sheetId="28" r:id="rId24"/>
-    <sheet name="R" sheetId="16" r:id="rId25"/>
-    <sheet name="S" sheetId="7" r:id="rId26"/>
-    <sheet name="T" sheetId="5" r:id="rId27"/>
-    <sheet name="V" sheetId="13" r:id="rId28"/>
-    <sheet name="W" sheetId="26" r:id="rId29"/>
+    <sheet name="分组单词" sheetId="33" r:id="rId7"/>
+    <sheet name="词组" sheetId="6" r:id="rId8"/>
+    <sheet name="A" sheetId="1" r:id="rId9"/>
+    <sheet name="B" sheetId="2" r:id="rId10"/>
+    <sheet name="C" sheetId="11" r:id="rId11"/>
+    <sheet name="D" sheetId="3" r:id="rId12"/>
+    <sheet name="E" sheetId="14" r:id="rId13"/>
+    <sheet name="F" sheetId="15" r:id="rId14"/>
+    <sheet name="G" sheetId="24" r:id="rId15"/>
+    <sheet name="H" sheetId="23" r:id="rId16"/>
+    <sheet name="I" sheetId="22" r:id="rId17"/>
+    <sheet name="J" sheetId="27" r:id="rId18"/>
+    <sheet name="K" sheetId="31" r:id="rId19"/>
+    <sheet name="L" sheetId="25" r:id="rId20"/>
+    <sheet name="M" sheetId="9" r:id="rId21"/>
+    <sheet name="N" sheetId="17" r:id="rId22"/>
+    <sheet name="O" sheetId="12" r:id="rId23"/>
+    <sheet name="P" sheetId="18" r:id="rId24"/>
+    <sheet name="Q" sheetId="28" r:id="rId25"/>
+    <sheet name="R" sheetId="16" r:id="rId26"/>
+    <sheet name="S" sheetId="7" r:id="rId27"/>
+    <sheet name="T" sheetId="5" r:id="rId28"/>
+    <sheet name="V" sheetId="13" r:id="rId29"/>
+    <sheet name="W" sheetId="26" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1876">
   <si>
     <t>音标</t>
   </si>
@@ -3365,41 +3367,10 @@
     <t>多音节内的倒三（多后缀组合的结果）</t>
   </si>
   <si>
-    <t>--'(辅音)ology</t>
-  </si>
-  <si>
-    <t>--'(辅音)ologist</t>
-  </si>
-  <si>
     <t>--(辅音)ical</t>
   </si>
   <si>
     <t>--(辅音)o'logical</t>
-  </si>
-  <si>
-    <r>
-      <t>--(辅音)o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'lo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gical</t>
-    </r>
   </si>
   <si>
     <t>后缀，重音节
@@ -3443,31 +3414,6 @@
 xxx(学相关) 的</t>
   </si>
   <si>
-    <r>
-      <t>--(辅音)o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'lo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gic</t>
-    </r>
-  </si>
-  <si>
     <t>--(辅音)o'logic</t>
   </si>
   <si>
@@ -5686,6 +5632,631 @@
   </si>
   <si>
     <t xml:space="preserve">注意是的se是 si: , 而后面cre的 krə/ 可以发 krɪ, 而secretary 是/ˈsekrəteri/ </t>
+  </si>
+  <si>
+    <t>算数</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>词性</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>同义词</t>
+  </si>
+  <si>
+    <t>thesaurus</t>
+  </si>
+  <si>
+    <t>同义词典</t>
+  </si>
+  <si>
+    <t>反义词</t>
+  </si>
+  <si>
+    <t>缩写</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>学术</t>
+  </si>
+  <si>
+    <t>theology</t>
+  </si>
+  <si>
+    <t>theologist</t>
+  </si>
+  <si>
+    <t>神学</t>
+  </si>
+  <si>
+    <t>theologian</t>
+  </si>
+  <si>
+    <t>archeology</t>
+  </si>
+  <si>
+    <t>考古</t>
+  </si>
+  <si>
+    <t>archeologist</t>
+  </si>
+  <si>
+    <t>生理学</t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>物理学</t>
+  </si>
+  <si>
+    <t>physician</t>
+  </si>
+  <si>
+    <t>philology</t>
+  </si>
+  <si>
+    <t>语言学</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>psychology</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>adi</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>海拔</t>
+  </si>
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <t>南北 0-90</t>
+  </si>
+  <si>
+    <t>东西0-180</t>
+  </si>
+  <si>
+    <t>sealevel</t>
+  </si>
+  <si>
+    <t>dentistry</t>
+  </si>
+  <si>
+    <t>口腔</t>
+  </si>
+  <si>
+    <t>dentist</t>
+  </si>
+  <si>
+    <t>图形</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one </t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>pentagon</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>hexagon</t>
+  </si>
+  <si>
+    <t>octagon</t>
+  </si>
+  <si>
+    <t>decagon</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>重要性</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>quartus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tertiary /ˈtɜːrʃieriˌˈtɜːrʃəri/ </t>
+  </si>
+  <si>
+    <t>antonym</t>
+  </si>
+  <si>
+    <r>
+      <t>--(辅音)o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'lo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gi cal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>--(辅音)o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'lo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gi c</t>
+    </r>
+  </si>
+  <si>
+    <t>--'(辅音)o lo gist</t>
+  </si>
+  <si>
+    <t>--'(辅音) o lo gy</t>
+  </si>
+  <si>
+    <t>--'(辅音)o gra phy</t>
+  </si>
+  <si>
+    <t>--(辅音)o' gra phi c</t>
+  </si>
+  <si>
+    <t>--(辅音)o' gra phi cal</t>
+  </si>
+  <si>
+    <t>nostril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ˈnɑːst drəl/ </t>
+  </si>
+  <si>
+    <t>convex</t>
+  </si>
+  <si>
+    <t>凸</t>
+  </si>
+  <si>
+    <t>concave</t>
+  </si>
+  <si>
+    <t>凹</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>carnivore</t>
+  </si>
+  <si>
+    <t>肉食动物</t>
+  </si>
+  <si>
+    <t>herbivore</t>
+  </si>
+  <si>
+    <t>食草动物</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>hemi</t>
+  </si>
+  <si>
+    <t>学年</t>
+  </si>
+  <si>
+    <t>freshman</t>
+  </si>
+  <si>
+    <t>sophomore</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>大三</t>
+  </si>
+  <si>
+    <t>大四</t>
+  </si>
+  <si>
+    <t>大二</t>
+  </si>
+  <si>
+    <t>大一</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>chord</t>
+  </si>
+  <si>
+    <t>弦</t>
+  </si>
+  <si>
+    <t>眼科</t>
+  </si>
+  <si>
+    <t>眼科学</t>
+  </si>
+  <si>
+    <t>oph thal ’mology</t>
+  </si>
+  <si>
+    <t>oph ‘thalmic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ɒf ˈθælmɪk;</t>
+  </si>
+  <si>
+    <t>sabbatical</t>
+  </si>
+  <si>
+    <t>学休年</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>降雨</t>
+  </si>
+  <si>
+    <t>身体器官</t>
+  </si>
+  <si>
+    <t>thigh</t>
+  </si>
+  <si>
+    <t>大腿</t>
+  </si>
+  <si>
+    <t>shank</t>
+  </si>
+  <si>
+    <t>小腿</t>
+  </si>
+  <si>
+    <t>calf</t>
+  </si>
+  <si>
+    <t>ankle</t>
+  </si>
+  <si>
+    <t>脚脖子</t>
+  </si>
+  <si>
+    <t>膝盖</t>
+  </si>
+  <si>
+    <t>kee</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>手肘</t>
+  </si>
+  <si>
+    <t>wrist</t>
+  </si>
+  <si>
+    <t>手腕</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>手臂</t>
+  </si>
+  <si>
+    <t>forearm</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>胃口</t>
+  </si>
+  <si>
+    <t>belly</t>
+  </si>
+  <si>
+    <t>肚子</t>
+  </si>
+  <si>
+    <t>abdomen</t>
+  </si>
+  <si>
+    <t>clima'tology</t>
+  </si>
+  <si>
+    <t>气象学</t>
+  </si>
+  <si>
+    <t>meteo'rology</t>
+  </si>
+  <si>
+    <t>地中海气候</t>
+  </si>
+  <si>
+    <t>sub-mediter’ranean /eɪniən/</t>
+  </si>
+  <si>
+    <t>bi--</t>
+  </si>
+  <si>
+    <t>物理属性</t>
+  </si>
+  <si>
+    <t>centennial</t>
+  </si>
+  <si>
+    <t>百年的</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>bicentennial</t>
+  </si>
+  <si>
+    <t>两百年</t>
+  </si>
+  <si>
+    <t>tri-angle</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>au‘tocracy</t>
+  </si>
+  <si>
+    <t>独裁</t>
+  </si>
+  <si>
+    <t>dictatorship</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>dormitory</t>
+  </si>
+  <si>
+    <t>--meter</t>
+  </si>
+  <si>
+    <r>
+      <t>sub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action</t>
+    </r>
+  </si>
+  <si>
+    <t>cardiologists</t>
+  </si>
+  <si>
+    <t>cardiology</t>
+  </si>
+  <si>
+    <t>quan--</t>
+  </si>
+  <si>
+    <t>/'kwɒn/</t>
+  </si>
+  <si>
+    <t>--qui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /kwə /</t>
+  </si>
+  <si>
+    <t>二维</t>
+  </si>
+  <si>
+    <t>三维</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>每年的</t>
+  </si>
+  <si>
+    <t>--rus</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>垂直</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>水平</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t>vertex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ˌɑːfθə ˈmɑːlədʒi;/  afuθə</t>
+  </si>
+  <si>
+    <r>
+      <t>--(辅音)o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'lo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gi an</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5775,7 +6346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -5876,6 +6447,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6180,7 +6754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -6373,7 +6947,7 @@
       <c r="B35" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="38" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6381,109 +6955,109 @@
       <c r="B36" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="38"/>
     </row>
     <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C37" s="37"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="38"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="38"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="38"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="C45" s="37"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="38"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="38"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="38"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="37"/>
+      <c r="C49" s="38"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C50" s="37"/>
+      <c r="C50" s="38"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="C51" s="37"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="C52" s="37"/>
+      <c r="C52" s="38"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="38"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
@@ -6507,7 +7081,7 @@
       <c r="B58" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="39" t="s">
         <v>755</v>
       </c>
     </row>
@@ -6515,7 +7089,7 @@
       <c r="B59" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="38"/>
+      <c r="C59" s="39"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
@@ -6838,6 +7412,108 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
@@ -6981,7 +7657,7 @@
       <c r="C9" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="42" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6992,7 +7668,7 @@
       <c r="C10" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -7001,7 +7677,7 @@
       <c r="C11" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -7010,7 +7686,7 @@
       <c r="C12" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
@@ -7107,7 +7783,7 @@
       <c r="C26" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>938</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -7121,7 +7797,7 @@
       <c r="C27" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="10" t="s">
         <v>937</v>
       </c>
@@ -7140,66 +7816,66 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="36" spans="2:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="26" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -7207,137 +7883,137 @@
         <v>159</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>649</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>1550</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>1551</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="36" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -7350,7 +8026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -7448,13 +8124,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>1292</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7462,21 +8138,21 @@
         <v>511</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7484,79 +8160,79 @@
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1567</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1565</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>1569</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>1576</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -7564,35 +8240,35 @@
         <v>914</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -7600,7 +8276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -7747,13 +8423,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7761,10 +8437,10 @@
         <v>145</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7772,32 +8448,32 @@
         <v>163</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -7805,7 +8481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -7878,49 +8554,49 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F5" t="s">
         <v>1321</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C7" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>1607</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
   </sheetData>
@@ -7928,7 +8604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -7978,7 +8654,7 @@
       <c r="C2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7989,7 +8665,7 @@
       <c r="C3" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
@@ -8007,19 +8683,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>1280</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -8030,7 +8706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -8096,24 +8772,24 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
     </row>
   </sheetData>
@@ -8121,7 +8797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -8179,140 +8855,140 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="D3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="E3" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C4" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="D4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="E4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="C5" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="D5" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="E5" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B10" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C10" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E10" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C11" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="E11" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C12" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="E12" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C13" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="E13" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B16" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C16" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E16" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="C17" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="E17" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C18" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E18" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
   </sheetData>
@@ -8320,7 +8996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -8383,7 +9059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -8426,16 +9102,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C2" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D2" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="F2" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
   </sheetData>
@@ -8443,7 +9119,402 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="C17" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="40" t="s">
+        <v>988</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="40"/>
+      <c r="C23" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="40"/>
+      <c r="C24" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="18" t="s">
+        <v>986</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="18" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -8493,7 +9564,7 @@
       <c r="C2" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8501,42 +9572,42 @@
       <c r="C3" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1642</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1646</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
   </sheetData>
@@ -8547,380 +9618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="C17" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
-        <v>988</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="3" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="3" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="3" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
-        <v>986</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="18"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="18" t="s">
-        <v>994</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
-        <v>998</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="18" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B22:B25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -9031,131 +9729,131 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>1524</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1594</v>
-      </c>
       <c r="G19" s="35" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>1591</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -9164,7 +9862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9205,7 +9903,7 @@
       <c r="C2" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9216,14 +9914,14 @@
       <c r="C3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -9235,7 +9933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -9347,13 +10045,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>
@@ -9362,7 +10060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -9449,58 +10147,58 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>1321</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>1402</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9508,74 +10206,74 @@
         <v>350</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -9583,7 +10281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -9640,13 +10338,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C3" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D3" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
   </sheetData>
@@ -9654,7 +10352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -9703,7 +10401,7 @@
       <c r="C2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9711,7 +10409,7 @@
       <c r="C3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -9768,43 +10466,43 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>1487</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>1488</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1492</v>
       </c>
     </row>
   </sheetData>
@@ -9815,12 +10513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9962,43 +10660,43 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>1383</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>1431</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10006,57 +10704,65 @@
         <v>1006</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1512</v>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>1677</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>1678</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>1682</v>
-      </c>
       <c r="E29" s="25" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
   </sheetData>
@@ -10065,7 +10771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -10248,69 +10954,69 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B18" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C18" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E18" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C20" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C21" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D21" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E24" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="C27" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="D27" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
@@ -10319,7 +11025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -10375,88 +11081,29 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="C5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D5" t="s">
         <v>1685</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="C6" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="D6" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C2" t="s">
-        <v>783</v>
-      </c>
-      <c r="D2" t="s">
-        <v>782</v>
-      </c>
-      <c r="E2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10477,26 +11124,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C1" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C2" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D2" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>327</v>
@@ -10510,29 +11157,29 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="B7" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C8" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="B10" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C10" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -10548,43 +11195,43 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B16" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C16" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="B18" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="C18" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="B20" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
   </sheetData>
@@ -10593,12 +11240,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10970,7 +11676,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>840</v>
@@ -10981,13 +11687,13 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -11066,7 +11772,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="41" t="s">
         <v>636</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -11077,7 +11783,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="3" t="s">
         <v>637</v>
       </c>
@@ -11637,13 +12343,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -12380,42 +13086,52 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B218" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C218" s="3" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C221" s="3" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
@@ -12424,176 +13140,182 @@
       <c r="A223" s="4"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B227" s="3" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="5" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C228" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="5" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C229" s="3" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>815</v>
+        <v>798</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>816</v>
+      <c r="A232" s="4" t="s">
+        <v>812</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B235" s="3" t="s">
         <v>824</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>365</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>554</v>
+        <v>126</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>556</v>
+        <v>128</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>555</v>
+        <v>127</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
-        <v>557</v>
+      <c r="A241" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>558</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B244" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C250" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="3" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C251" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
+    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B252" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C250" s="5" t="s">
+      <c r="C252" s="5" t="s">
         <v>684</v>
       </c>
     </row>
@@ -12655,38 +13377,38 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>471</v>
@@ -12697,13 +13419,13 @@
         <v>448</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12711,7 +13433,7 @@
     </row>
     <row r="9" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1004</v>
@@ -12725,13 +13447,13 @@
         <v>996</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1002</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -12739,7 +13461,7 @@
         <v>997</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1003</v>
@@ -12750,56 +13472,56 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -12807,10 +13529,10 @@
         <v>442</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>475</v>
@@ -12821,66 +13543,66 @@
         <v>442</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>188</v>
@@ -12888,16 +13610,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -12907,13 +13629,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,41 +13654,41 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>159</v>
@@ -12977,13 +13699,13 @@
         <v>146</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -12991,13 +13713,13 @@
         <v>146</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>1167</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13005,21 +13727,21 @@
         <v>228</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>553</v>
@@ -13027,27 +13749,27 @@
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -13069,16 +13791,16 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1092</v>
-      </c>
       <c r="D47" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13086,10 +13808,10 @@
         <v>147</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>147</v>
@@ -13100,24 +13822,24 @@
         <v>145</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13125,27 +13847,27 @@
         <v>662</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13153,24 +13875,24 @@
         <v>222</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>98</v>
@@ -13178,40 +13900,40 @@
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>218</v>
@@ -13219,13 +13941,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -13244,63 +13966,63 @@
         <v>509</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -13319,16 +14041,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -13342,57 +14064,57 @@
         <v>690</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>802</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -13402,13 +14124,13 @@
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -13418,7 +14140,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D89" s="5" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -13434,13 +14156,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -13467,7 +14189,7 @@
         <v>975</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -13475,24 +14197,24 @@
         <v>89</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>150</v>
@@ -13500,52 +14222,52 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -13560,7 +14282,7 @@
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="D109" s="5" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -13568,32 +14290,32 @@
         <v>251</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>255</v>
@@ -13601,21 +14323,21 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>253</v>
@@ -13652,10 +14374,10 @@
         <v>1013</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13674,13 +14396,13 @@
     </row>
     <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>58</v>
@@ -13688,13 +14410,13 @@
     </row>
     <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -13731,7 +14453,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D128" s="5" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -13739,7 +14461,7 @@
         <v>266</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>1004</v>
@@ -13747,24 +14469,24 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>1069</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -13774,16 +14496,16 @@
     </row>
     <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -13791,13 +14513,13 @@
         <v>457</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13805,10 +14527,10 @@
         <v>247</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>69</v>
@@ -13816,10 +14538,10 @@
     </row>
     <row r="138" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>202</v>
@@ -13827,10 +14549,10 @@
     </row>
     <row r="139" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>202</v>
@@ -13838,16 +14560,16 @@
     </row>
     <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -13855,26 +14577,26 @@
         <v>205</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D144" s="5" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -13882,18 +14604,18 @@
         <v>113</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>147</v>
@@ -13901,51 +14623,51 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D157" s="5" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -13953,88 +14675,88 @@
         <v>20</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C159" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>1103</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>150</v>
@@ -14042,13 +14764,13 @@
     </row>
     <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -14056,71 +14778,71 @@
         <v>148</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -14147,13 +14869,13 @@
     </row>
     <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C175" s="29" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>82</v>
@@ -14174,21 +14896,21 @@
       <c r="A178" s="4"/>
       <c r="C178" s="29"/>
       <c r="D178" s="5" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="C179" s="29"/>
       <c r="D179" s="5" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="C180" s="29"/>
       <c r="D180" s="5" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -14196,7 +14918,7 @@
         <v>35</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -14204,43 +14926,43 @@
         <v>97</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -14248,10 +14970,10 @@
         <v>427</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -14267,21 +14989,21 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D189" s="5" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -14291,10 +15013,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>405</v>
@@ -14302,17 +15024,17 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D198" s="5" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D199" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D200" s="5" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -14322,13 +15044,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>925</v>
@@ -14336,13 +15058,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>175</v>
@@ -14350,13 +15072,13 @@
     </row>
     <row r="205" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>684</v>
@@ -14560,7 +15282,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -14584,6 +15306,596 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1800</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1823</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1802</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1827</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1828</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1743</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1785</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1744</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1787</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1788</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1830</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1832</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1833</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1871</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1710</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1792</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1866</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1793</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1797</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1843</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1794</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1795</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1849</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1850</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>970</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="M17" t="s">
+        <v>235</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1796</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1852</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1864</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1847</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H23" t="s">
+        <v>890</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1811</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1756</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>1782</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -14810,12 +16122,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14960,130 +16272,130 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C11" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C12" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="C18" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D18" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B23" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="E23" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B24" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C24" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E24" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C25" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="E26" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D29" t="s">
         <v>1648</v>
       </c>
-      <c r="C29" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1652</v>
-      </c>
       <c r="E29" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="F29" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="C31" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="D31" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15095,106 +16407,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/单词纠正.xlsx
+++ b/单词纠正.xlsx
@@ -5712,9 +5712,6 @@
     <t>philology</t>
   </si>
   <si>
-    <t>语言学</t>
-  </si>
-  <si>
     <t>哲学</t>
   </si>
   <si>
@@ -6257,6 +6254,9 @@
       </rPr>
       <t>gi an</t>
     </r>
+  </si>
+  <si>
+    <t>文献学</t>
   </si>
 </sst>
 </file>
@@ -9301,10 +9301,10 @@
         <v>723</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -9315,10 +9315,10 @@
         <v>1028</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -9329,10 +9329,10 @@
         <v>1094</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>1775</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -9343,7 +9343,7 @@
         <v>1204</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -9351,10 +9351,10 @@
         <v>427</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -9387,7 +9387,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9395,7 +9395,7 @@
         <v>185</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9495,7 +9495,7 @@
         <v>1066</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -10720,10 +10720,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>1778</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -13086,10 +13086,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>1859</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -13105,10 +13105,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>1861</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -15310,7 +15310,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15329,13 +15329,13 @@
         <v>1697</v>
       </c>
       <c r="G1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="M1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="Q1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -15346,48 +15346,48 @@
         <v>392</v>
       </c>
       <c r="H2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="M2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="N2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="Q2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="R2" t="s">
         <v>1814</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H3" t="s">
         <v>1729</v>
       </c>
-      <c r="H3" t="s">
-        <v>1730</v>
-      </c>
       <c r="I3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="M3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="N3" t="s">
         <v>1766</v>
       </c>
-      <c r="N3" t="s">
-        <v>1767</v>
-      </c>
       <c r="Q3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="R3" t="s">
         <v>1816</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>1817</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -15395,22 +15395,22 @@
         <v>1699</v>
       </c>
       <c r="G4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="M4" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="Q4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="R4" t="s">
         <v>1819</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -15418,36 +15418,36 @@
         <v>1700</v>
       </c>
       <c r="G5" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H5" t="s">
         <v>1732</v>
       </c>
-      <c r="H5" t="s">
-        <v>1733</v>
-      </c>
       <c r="I5" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="M5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="Q5" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="R5" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I6" t="s">
         <v>1799</v>
       </c>
-      <c r="I6" t="s">
-        <v>1800</v>
-      </c>
       <c r="Q6" t="s">
+        <v>1822</v>
+      </c>
+      <c r="R6" t="s">
         <v>1823</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -15455,16 +15455,16 @@
         <v>1701</v>
       </c>
       <c r="G7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="I7" t="s">
         <v>1801</v>
       </c>
-      <c r="I7" t="s">
-        <v>1802</v>
-      </c>
       <c r="Q7" t="s">
+        <v>1824</v>
+      </c>
+      <c r="R7" t="s">
         <v>1825</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -15475,21 +15475,21 @@
         <v>1703</v>
       </c>
       <c r="M8" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="Q8" t="s">
+        <v>1826</v>
+      </c>
+      <c r="R8" t="s">
         <v>1827</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>1828</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B9" t="s">
         <v>1706</v>
@@ -15501,16 +15501,16 @@
         <v>1283</v>
       </c>
       <c r="H9" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I9" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="M9" t="s">
+        <v>1784</v>
+      </c>
+      <c r="N9" t="s">
         <v>1785</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -15521,25 +15521,25 @@
         <v>1707</v>
       </c>
       <c r="G10" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I10" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="M10" t="s">
+        <v>1786</v>
+      </c>
+      <c r="N10" t="s">
         <v>1787</v>
       </c>
-      <c r="N10" t="s">
-        <v>1788</v>
-      </c>
       <c r="Q10" t="s">
+        <v>1829</v>
+      </c>
+      <c r="R10" t="s">
         <v>1830</v>
-      </c>
-      <c r="R10" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -15550,47 +15550,47 @@
         <v>1705</v>
       </c>
       <c r="G11" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I11" t="s">
         <v>1741</v>
       </c>
-      <c r="I11" t="s">
-        <v>1742</v>
-      </c>
       <c r="Q11" t="s">
+        <v>1831</v>
+      </c>
+      <c r="R11" t="s">
         <v>1832</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>1833</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I12" t="s">
         <v>1868</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H13" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I13" t="s">
         <v>1870</v>
       </c>
-      <c r="I13" t="s">
-        <v>1871</v>
-      </c>
       <c r="M13" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -15598,10 +15598,10 @@
         <v>1710</v>
       </c>
       <c r="M14" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="N14" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -15618,19 +15618,19 @@
         <v>1714</v>
       </c>
       <c r="H15" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I15" t="s">
         <v>1865</v>
       </c>
-      <c r="I15" t="s">
-        <v>1866</v>
-      </c>
       <c r="M15" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="N15" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="Q15" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -15644,28 +15644,28 @@
         <v>1717</v>
       </c>
       <c r="G16" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I16" t="s">
         <v>1842</v>
       </c>
-      <c r="I16" t="s">
-        <v>1843</v>
-      </c>
       <c r="M16" t="s">
+        <v>1793</v>
+      </c>
+      <c r="N16" t="s">
         <v>1794</v>
       </c>
-      <c r="N16" t="s">
-        <v>1795</v>
-      </c>
       <c r="Q16" t="s">
+        <v>1848</v>
+      </c>
+      <c r="R16" t="s">
         <v>1849</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>1850</v>
-      </c>
-      <c r="S16" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -15676,22 +15676,22 @@
         <v>1718</v>
       </c>
       <c r="H17" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I17" t="s">
         <v>1845</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1846</v>
       </c>
       <c r="M17" t="s">
         <v>235</v>
       </c>
       <c r="N17" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="Q17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R17" t="s">
         <v>1852</v>
-      </c>
-      <c r="R17" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -15710,22 +15710,22 @@
         <v>1722</v>
       </c>
       <c r="B19" t="s">
-        <v>1723</v>
+        <v>1875</v>
       </c>
       <c r="G19" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H19" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I19" t="s">
         <v>1863</v>
       </c>
-      <c r="I19" t="s">
-        <v>1864</v>
-      </c>
       <c r="M19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="N19" t="s">
         <v>1808</v>
-      </c>
-      <c r="N19" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -15733,160 +15733,160 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G20" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H20" t="s">
         <v>1749</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>1750</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B21" t="s">
         <v>1725</v>
       </c>
-      <c r="B21" t="s">
-        <v>1726</v>
-      </c>
       <c r="G21" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I21" t="s">
         <v>1789</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1840</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B22" t="s">
         <v>1745</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>1746</v>
       </c>
-      <c r="C22" t="s">
-        <v>1747</v>
-      </c>
       <c r="G22" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H22" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="M22" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C23" t="s">
         <v>1806</v>
       </c>
-      <c r="B23" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1807</v>
-      </c>
       <c r="G23" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H23" t="s">
         <v>890</v>
       </c>
       <c r="I23" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="M23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="N23" t="s">
         <v>1811</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B24" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C24" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G24" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H24" t="s">
         <v>1755</v>
       </c>
-      <c r="H24" t="s">
-        <v>1756</v>
-      </c>
       <c r="M24" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="N24" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B25" t="s">
         <v>1835</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1836</v>
       </c>
-      <c r="C25" t="s">
-        <v>1837</v>
-      </c>
       <c r="G25" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H25" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B26" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C26" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G26" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H26" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H27" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H29" t="s">
         <v>1780</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H30" t="s">
         <v>1782</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1783</v>
       </c>
     </row>
   </sheetData>
